--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23</t>
+    <t>2024-05-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>91</v>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -650,7 +650,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the condition, problem or diagnosis</t>
+    <t>Diagnosekode</t>
   </si>
   <si>
     <t>Identification of the condition, problem or diagnosis.</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -650,7 +650,7 @@
 </t>
   </si>
   <si>
-    <t>Diagnosekode</t>
+    <t>Diagnosekode. Det er mulig å bruke ICD-10, ICD-11, ICPC-2 og SNOMED CT.</t>
   </si>
   <si>
     <t>Identification of the condition, problem or diagnosis.</t>
@@ -695,6 +695,344 @@
     <t>246090004</t>
   </si>
   <si>
+    <t>Condition.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Condition.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:SCT</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:SCT.id</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:SCT.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:SCT.system</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:SCT.version</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:SCT.code</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:SCT.display</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:SCT.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD10</t>
+  </si>
+  <si>
+    <t>ICD10</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD10.id</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD10.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD10.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.7110</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD10.version</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD10.code</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD10.display</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD10.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD11</t>
+  </si>
+  <si>
+    <t>ICD11</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD11.id</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD11.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD11.system</t>
+  </si>
+  <si>
+    <t>http://id.who.int/icd/release/11/mms</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD11.version</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD11.code</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD11.display</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICD11.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICPC2</t>
+  </si>
+  <si>
+    <t>ICPC2</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICPC2.id</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICPC2.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICPC2.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.7170</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICPC2.version</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICPC2.code</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICPC2.display</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:ICPC2.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Condition.bodySite</t>
   </si>
   <si>
@@ -914,29 +1252,7 @@
     <t>Condition.stage.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Condition.stage.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Condition.stage.modifierExtension</t>
@@ -1405,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP38"/>
+  <dimension ref="A1:AP74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1414,7 +1730,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1442,7 +1758,7 @@
     <col min="26" max="26" width="50.7109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3401,7 +3717,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3410,20 +3726,18 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>219</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3448,80 +3762,80 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3530,21 +3844,21 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3580,46 +3894,46 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>79</v>
@@ -3627,10 +3941,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3641,7 +3955,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3653,18 +3967,20 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3700,25 +4016,23 @@
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3727,19 +4041,19 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>79</v>
@@ -3747,12 +4061,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
       </c>
@@ -3773,18 +4089,20 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -3832,13 +4150,13 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -3847,19 +4165,19 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>79</v>
@@ -3867,10 +4185,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3893,17 +4211,15 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -3952,7 +4268,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -3961,10 +4277,10 @@
         <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -3976,10 +4292,10 @@
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -3987,21 +4303,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4010,18 +4326,20 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4058,31 +4376,31 @@
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4091,13 +4409,13 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>79</v>
@@ -4105,10 +4423,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4116,7 +4434,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>91</v>
@@ -4131,16 +4449,20 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4149,7 +4471,7 @@
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>79</v>
@@ -4188,7 +4510,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4209,13 +4531,13 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -4223,10 +4545,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4249,15 +4571,17 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4306,7 +4630,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4327,13 +4651,13 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -4341,10 +4665,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4355,7 +4679,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4364,19 +4688,21 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4424,19 +4750,19 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>283</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
@@ -4445,10 +4771,10 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4459,10 +4785,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4482,19 +4808,21 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4542,7 +4870,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4554,7 +4882,7 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -4563,10 +4891,10 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4577,21 +4905,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4600,21 +4928,23 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4662,19 +4992,19 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -4683,10 +5013,10 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -4697,45 +5027,47 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4784,7 +5116,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4796,7 +5128,7 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -4805,10 +5137,10 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -4819,10 +5151,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4845,13 +5177,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4878,13 +5210,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -4902,7 +5234,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -4911,22 +5243,22 @@
         <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -4937,14 +5269,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4963,15 +5295,17 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
+        <v>138</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5008,19 +5342,19 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5029,10 +5363,10 @@
         <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5044,7 +5378,7 @@
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5055,10 +5389,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5066,7 +5400,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>91</v>
@@ -5078,19 +5412,23 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5099,7 +5437,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5114,13 +5452,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5138,7 +5476,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5159,10 +5497,10 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5173,10 +5511,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5187,7 +5525,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5196,19 +5534,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5258,19 +5596,19 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5279,10 +5617,10 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5293,10 +5631,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5316,19 +5654,21 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5376,7 +5716,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5388,7 +5728,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5397,10 +5737,10 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5411,21 +5751,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5434,21 +5774,21 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5496,19 +5836,19 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5517,10 +5857,10 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5531,45 +5871,45 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5618,19 +5958,19 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -5639,10 +5979,10 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5653,12 +5993,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5667,7 +6009,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5679,16 +6021,20 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5712,13 +6058,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -5736,7 +6082,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -5745,25 +6091,25 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>238</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
@@ -5771,10 +6117,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5785,7 +6131,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5794,16 +6140,16 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>336</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5854,19 +6200,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -5878,10 +6224,10 @@
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -5889,14 +6235,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5915,15 +6261,17 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>138</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -5960,19 +6308,19 @@
         <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -5984,24 +6332,4336 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AO38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP38" t="s" s="2">
+      <c r="AP54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -774,6 +774,10 @@
     <t>SCT</t>
   </si>
   <si>
+    <t xml:space="preserve">SNOMED CT
+</t>
+  </si>
+  <si>
     <t>Condition.code.coding:SCT.id</t>
   </si>
   <si>
@@ -925,6 +929,10 @@
     <t>ICD10</t>
   </si>
   <si>
+    <t xml:space="preserve">ICD-10
+</t>
+  </si>
+  <si>
     <t>Condition.code.coding:ICD10.id</t>
   </si>
   <si>
@@ -955,6 +963,10 @@
     <t>ICD11</t>
   </si>
   <si>
+    <t xml:space="preserve">ICD-11
+</t>
+  </si>
+  <si>
     <t>Condition.code.coding:ICD11.id</t>
   </si>
   <si>
@@ -983,6 +995,10 @@
   </si>
   <si>
     <t>ICPC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICPC-2
+</t>
   </si>
   <si>
     <t>Condition.code.coding:ICPC2.id</t>
@@ -4070,7 +4086,7 @@
         <v>240</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4185,10 +4201,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4303,10 +4319,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4423,10 +4439,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4452,16 +4468,16 @@
         <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4471,7 +4487,7 @@
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>79</v>
@@ -4510,7 +4526,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4531,10 +4547,10 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4545,10 +4561,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4574,13 +4590,13 @@
         <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4630,7 +4646,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4651,10 +4667,10 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4665,10 +4681,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4676,7 +4692,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>91</v>
@@ -4694,14 +4710,14 @@
         <v>111</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4750,7 +4766,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4771,10 +4787,10 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4785,10 +4801,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4814,14 +4830,14 @@
         <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4870,7 +4886,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4891,10 +4907,10 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4905,10 +4921,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4931,19 +4947,19 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4992,7 +5008,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5013,10 +5029,10 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5027,16 +5043,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5151,10 +5167,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5269,10 +5285,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5389,10 +5405,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5418,16 +5434,16 @@
         <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5437,7 +5453,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5476,7 +5492,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5497,10 +5513,10 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5511,10 +5527,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5540,13 +5556,13 @@
         <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5596,7 +5612,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5617,10 +5633,10 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5631,10 +5647,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5642,7 +5658,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>91</v>
@@ -5660,14 +5676,14 @@
         <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5716,7 +5732,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5737,10 +5753,10 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5751,10 +5767,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5780,14 +5796,14 @@
         <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5836,7 +5852,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5857,10 +5873,10 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5871,10 +5887,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5897,19 +5913,19 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5958,7 +5974,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5979,10 +5995,10 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5993,16 +6009,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6117,10 +6133,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6235,10 +6251,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6355,10 +6371,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6384,16 +6400,16 @@
         <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6403,7 +6419,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -6442,7 +6458,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6463,10 +6479,10 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6477,10 +6493,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6506,13 +6522,13 @@
         <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6562,7 +6578,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6583,10 +6599,10 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6597,10 +6613,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6608,7 +6624,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -6626,14 +6642,14 @@
         <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6682,7 +6698,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6703,10 +6719,10 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6717,10 +6733,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6746,14 +6762,14 @@
         <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6802,7 +6818,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6823,10 +6839,10 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6837,10 +6853,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6863,19 +6879,19 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6924,7 +6940,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6945,10 +6961,10 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6959,16 +6975,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7083,10 +7099,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7201,10 +7217,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7321,10 +7337,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7350,16 +7366,16 @@
         <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7369,7 +7385,7 @@
         <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>79</v>
@@ -7408,7 +7424,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7429,10 +7445,10 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7443,10 +7459,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7472,13 +7488,13 @@
         <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7528,7 +7544,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7549,10 +7565,10 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7563,10 +7579,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7574,7 +7590,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>91</v>
@@ -7592,14 +7608,14 @@
         <v>111</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7648,7 +7664,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7669,10 +7685,10 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7683,10 +7699,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7712,14 +7728,14 @@
         <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7768,7 +7784,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7789,10 +7805,10 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7803,10 +7819,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7829,19 +7845,19 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7890,7 +7906,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7911,10 +7927,10 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -7925,10 +7941,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7954,16 +7970,16 @@
         <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8012,7 +8028,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8033,10 +8049,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8047,10 +8063,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8076,13 +8092,13 @@
         <v>158</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8111,28 +8127,28 @@
         <v>207</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8150,31 +8166,31 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8193,17 +8209,17 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8252,7 +8268,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>91</v>
@@ -8267,19 +8283,19 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8287,10 +8303,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8313,16 +8329,16 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8372,7 +8388,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8387,19 +8403,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8407,10 +8423,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8433,16 +8449,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8492,7 +8508,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8507,19 +8523,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -8527,10 +8543,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8553,16 +8569,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8612,7 +8628,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8621,7 +8637,7 @@
         <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
@@ -8636,10 +8652,10 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -8647,10 +8663,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8673,13 +8689,13 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8730,7 +8746,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8751,13 +8767,13 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -8765,10 +8781,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8791,13 +8807,13 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8848,7 +8864,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8872,10 +8888,10 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8883,10 +8899,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8909,13 +8925,13 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8966,7 +8982,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8987,13 +9003,13 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9001,10 +9017,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9027,13 +9043,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9084,7 +9100,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9096,7 +9112,7 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9108,7 +9124,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9119,10 +9135,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9237,10 +9253,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9357,14 +9373,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9386,10 +9402,10 @@
         <v>137</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>140</v>
@@ -9444,7 +9460,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9479,10 +9495,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9508,10 +9524,10 @@
         <v>158</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9541,28 +9557,28 @@
         <v>207</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Z65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9571,7 +9587,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -9580,7 +9596,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>168</v>
@@ -9597,10 +9613,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9623,13 +9639,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9680,7 +9696,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9689,7 +9705,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -9704,7 +9720,7 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -9715,10 +9731,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9744,10 +9760,10 @@
         <v>158</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9777,28 +9793,28 @@
         <v>207</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Z67" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9822,7 +9838,7 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -9833,10 +9849,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9859,16 +9875,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9918,7 +9934,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9930,7 +9946,7 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -9942,7 +9958,7 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -9953,10 +9969,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10071,10 +10087,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10191,14 +10207,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10220,10 +10236,10 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>140</v>
@@ -10278,7 +10294,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10313,10 +10329,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10342,10 +10358,10 @@
         <v>158</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10375,28 +10391,28 @@
         <v>207</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Z72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10405,13 +10421,13 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>188</v>
@@ -10420,10 +10436,10 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>79</v>
@@ -10431,10 +10447,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10457,13 +10473,13 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10514,7 +10530,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10523,7 +10539,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>103</v>
@@ -10538,10 +10554,10 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>79</v>
@@ -10549,10 +10565,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10575,13 +10591,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10632,7 +10648,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10647,16 +10663,16 @@
         <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27</t>
+    <t>2024-06-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -650,10 +650,10 @@
 </t>
   </si>
   <si>
+    <t>Diagnosekode.</t>
+  </si>
+  <si>
     <t>Diagnosekode. Det er mulig å bruke ICD-10, ICD-11, ICPC-2 og SNOMED CT.</t>
-  </si>
-  <si>
-    <t>Identification of the condition, problem or diagnosis.</t>
   </si>
   <si>
     <t>0..1 to account for primarily narrative only resources.</t>
@@ -774,8 +774,10 @@
     <t>SCT</t>
   </si>
   <si>
-    <t xml:space="preserve">SNOMED CT
-</t>
+    <t>SNOMED CT</t>
+  </si>
+  <si>
+    <t>SNOMED CT er ei systematisk samling av helsefaglege omgrep som kan brukast til å dokumentere og dele opplysningar knytt til pasientbehandlinga. Ved å bruke eit felles omgrepsapparat skal det bli lettare å kommunisere mellom ulike delar av helsetenesta.</t>
   </si>
   <si>
     <t>Condition.code.coding:SCT.id</t>
@@ -929,8 +931,10 @@
     <t>ICD10</t>
   </si>
   <si>
-    <t xml:space="preserve">ICD-10
-</t>
+    <t>ICD-10</t>
+  </si>
+  <si>
+    <t>ICD-10: Den internasjonale statistiske klassifikasjonen av sykdommer og beslektede helseproblemer.</t>
   </si>
   <si>
     <t>Condition.code.coding:ICD10.id</t>
@@ -963,8 +967,13 @@
     <t>ICD11</t>
   </si>
   <si>
-    <t xml:space="preserve">ICD-11
-</t>
+    <t>ICD-11</t>
+  </si>
+  <si>
+    <t>International Classification of Diseases, 11th Revision Mortality and Morbidity Statistics (MMS).</t>
+  </si>
+  <si>
+    <t>Skal erstattes av navnerom som peker på generell ICD-11, ikke MMS.</t>
   </si>
   <si>
     <t>Condition.code.coding:ICD11.id</t>
@@ -997,8 +1006,10 @@
     <t>ICPC2</t>
   </si>
   <si>
-    <t xml:space="preserve">ICPC-2
-</t>
+    <t>ICPC-2</t>
+  </si>
+  <si>
+    <t>ICPC-2 er den internasjonale klassifikasjonen for helseproblemer, diagnoser og andre årsaker til kontakt med primærhelsetjenesten.</t>
   </si>
   <si>
     <t>Condition.code.coding:ICPC2.id</t>
@@ -4086,7 +4097,7 @@
         <v>240</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4108,10 +4119,10 @@
         <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>232</v>
@@ -4201,10 +4212,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4319,10 +4330,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4439,10 +4450,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4468,16 +4479,16 @@
         <v>105</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4487,7 +4498,7 @@
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>79</v>
@@ -4526,7 +4537,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4547,10 +4558,10 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4561,10 +4572,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4590,13 +4601,13 @@
         <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4646,7 +4657,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4667,10 +4678,10 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4681,10 +4692,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4710,14 +4721,14 @@
         <v>111</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4766,7 +4777,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4787,10 +4798,10 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4801,10 +4812,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4830,14 +4841,14 @@
         <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4886,7 +4897,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4907,10 +4918,10 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4921,10 +4932,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4947,19 +4958,19 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5008,7 +5019,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5029,10 +5040,10 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5043,16 +5054,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5074,10 +5085,10 @@
         <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>232</v>
@@ -5167,10 +5178,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5285,10 +5296,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5405,10 +5416,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5434,16 +5445,16 @@
         <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5453,7 +5464,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5492,7 +5503,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5513,10 +5524,10 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5527,10 +5538,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5556,13 +5567,13 @@
         <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5612,7 +5623,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5633,10 +5644,10 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5647,10 +5658,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5676,14 +5687,14 @@
         <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5732,7 +5743,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5753,10 +5764,10 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5767,10 +5778,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5796,14 +5807,14 @@
         <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5852,7 +5863,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5873,10 +5884,10 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5887,10 +5898,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5913,19 +5924,19 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5974,7 +5985,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5995,10 +6006,10 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6009,16 +6020,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6040,13 +6051,13 @@
         <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>233</v>
@@ -6133,10 +6144,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6251,10 +6262,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6371,10 +6382,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6400,16 +6411,16 @@
         <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6419,7 +6430,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -6458,7 +6469,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6479,10 +6490,10 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6493,10 +6504,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6522,13 +6533,13 @@
         <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6578,7 +6589,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6599,10 +6610,10 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6613,10 +6624,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6642,14 +6653,14 @@
         <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6698,7 +6709,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6719,10 +6730,10 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6733,10 +6744,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6762,14 +6773,14 @@
         <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6818,7 +6829,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6839,10 +6850,10 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6853,10 +6864,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6879,19 +6890,19 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6940,7 +6951,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6961,10 +6972,10 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6975,16 +6986,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7006,10 +7017,10 @@
         <v>229</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>232</v>
@@ -7099,10 +7110,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7217,10 +7228,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7337,10 +7348,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7366,16 +7377,16 @@
         <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7385,7 +7396,7 @@
         <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>79</v>
@@ -7424,7 +7435,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7445,10 +7456,10 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7459,10 +7470,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7488,13 +7499,13 @@
         <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7544,7 +7555,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7565,10 +7576,10 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7579,10 +7590,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7608,14 +7619,14 @@
         <v>111</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7664,7 +7675,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7685,10 +7696,10 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7699,10 +7710,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7728,14 +7739,14 @@
         <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7784,7 +7795,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7805,10 +7816,10 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7819,10 +7830,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7845,19 +7856,19 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7906,7 +7917,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7927,10 +7938,10 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -7941,10 +7952,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7970,16 +7981,16 @@
         <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8028,7 +8039,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8049,10 +8060,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8063,10 +8074,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8092,13 +8103,13 @@
         <v>158</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8127,28 +8138,28 @@
         <v>207</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Z53" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8166,31 +8177,31 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8209,17 +8220,17 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8268,7 +8279,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>91</v>
@@ -8283,19 +8294,19 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8303,10 +8314,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8329,16 +8340,16 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8388,7 +8399,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8403,19 +8414,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8423,10 +8434,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8449,16 +8460,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8508,7 +8519,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8523,19 +8534,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -8543,10 +8554,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8569,16 +8580,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8628,7 +8639,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8637,7 +8648,7 @@
         <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
@@ -8652,10 +8663,10 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -8663,10 +8674,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8689,13 +8700,13 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8746,7 +8757,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8767,13 +8778,13 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -8781,10 +8792,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8807,13 +8818,13 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8864,7 +8875,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8888,10 +8899,10 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8899,10 +8910,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8925,13 +8936,13 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8982,7 +8993,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9003,13 +9014,13 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9017,10 +9028,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9043,13 +9054,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9100,7 +9111,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9112,7 +9123,7 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9124,7 +9135,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9135,10 +9146,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9253,10 +9264,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9373,14 +9384,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9402,10 +9413,10 @@
         <v>137</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>140</v>
@@ -9460,7 +9471,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9495,10 +9506,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9524,10 +9535,10 @@
         <v>158</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9557,10 +9568,10 @@
         <v>207</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -9578,7 +9589,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9587,7 +9598,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -9596,7 +9607,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>168</v>
@@ -9613,10 +9624,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9639,13 +9650,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9696,7 +9707,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9705,7 +9716,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -9720,7 +9731,7 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -9731,10 +9742,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9760,10 +9771,10 @@
         <v>158</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9793,10 +9804,10 @@
         <v>207</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -9814,7 +9825,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9838,7 +9849,7 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -9849,10 +9860,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9875,16 +9886,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9934,7 +9945,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9946,7 +9957,7 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -9958,7 +9969,7 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -9969,10 +9980,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10087,10 +10098,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10207,14 +10218,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10236,10 +10247,10 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>140</v>
@@ -10294,7 +10305,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10329,10 +10340,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10358,10 +10369,10 @@
         <v>158</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10391,10 +10402,10 @@
         <v>207</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10412,7 +10423,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10421,13 +10432,13 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>188</v>
@@ -10436,10 +10447,10 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>79</v>
@@ -10447,10 +10458,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10473,13 +10484,13 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10530,7 +10541,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10539,7 +10550,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>103</v>
@@ -10554,10 +10565,10 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>79</v>
@@ -10565,10 +10576,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10591,13 +10602,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10648,7 +10659,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10663,16 +10674,16 @@
         <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Diagnosen som pasienten har fått rekvirert og administrert legemiddelet for</t>
+    <t xml:space="preserve">Diagnosen som pasienten har fått rekvirert og administrert legemiddelet for. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -985,6 +985,9 @@
     <t>Condition.code.coding:ICD11.system</t>
   </si>
   <si>
+    <t xml:space="preserve">Kilde for URI: https://build.fhir.org/ig/HL7/UTG/CodeSystem-ICD11MMS.html </t>
+  </si>
+  <si>
     <t>http://id.who.int/icd/release/11/mms</t>
   </si>
   <si>
@@ -1094,11 +1097,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
-    <t>Who has the condition?</t>
+    <t>Pasienten diagnosen er knyttet til.</t>
   </si>
   <si>
     <t>Indicates the patient or group who the condition record is associated with.</t>
@@ -6417,7 +6420,7 @@
         <v>250</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>252</v>
@@ -6430,7 +6433,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -6504,7 +6507,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>258</v>
@@ -6624,7 +6627,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>266</v>
@@ -6744,7 +6747,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>274</v>
@@ -6864,7 +6867,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>282</v>
@@ -6986,13 +6989,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>79</v>
@@ -7017,10 +7020,10 @@
         <v>229</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>232</v>
@@ -7110,7 +7113,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>244</v>
@@ -7228,7 +7231,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>246</v>
@@ -7348,7 +7351,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>248</v>
@@ -7396,7 +7399,7 @@
         <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>79</v>
@@ -7470,7 +7473,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>258</v>
@@ -7590,7 +7593,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>266</v>
@@ -7710,7 +7713,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>274</v>
@@ -7830,7 +7833,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>282</v>
@@ -7952,10 +7955,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7981,16 +7984,16 @@
         <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8039,7 +8042,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8060,10 +8063,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8074,10 +8077,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8103,13 +8106,13 @@
         <v>158</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8138,10 +8141,10 @@
         <v>207</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8159,7 +8162,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8177,31 +8180,31 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8220,17 +8223,17 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8279,7 +8282,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>91</v>
@@ -8294,19 +8297,19 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8314,10 +8317,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8340,16 +8343,16 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8399,7 +8402,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8414,19 +8417,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8434,10 +8437,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8460,16 +8463,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8519,7 +8522,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8534,19 +8537,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -8554,10 +8557,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8580,16 +8583,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8639,7 +8642,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8648,7 +8651,7 @@
         <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
@@ -8663,10 +8666,10 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -8674,10 +8677,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8700,13 +8703,13 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8757,7 +8760,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8778,13 +8781,13 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -8792,10 +8795,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8818,13 +8821,13 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8875,7 +8878,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8899,10 +8902,10 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8910,10 +8913,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8936,13 +8939,13 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8993,7 +8996,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9014,13 +9017,13 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9028,10 +9031,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9054,13 +9057,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9111,7 +9114,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9123,7 +9126,7 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9135,7 +9138,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9146,10 +9149,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9264,10 +9267,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9384,14 +9387,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9413,10 +9416,10 @@
         <v>137</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>140</v>
@@ -9471,7 +9474,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9506,10 +9509,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9535,10 +9538,10 @@
         <v>158</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9568,10 +9571,10 @@
         <v>207</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -9589,7 +9592,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9598,7 +9601,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -9607,7 +9610,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>168</v>
@@ -9624,10 +9627,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9650,13 +9653,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9707,7 +9710,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9716,7 +9719,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -9731,7 +9734,7 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -9742,10 +9745,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9771,10 +9774,10 @@
         <v>158</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9804,10 +9807,10 @@
         <v>207</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -9825,7 +9828,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9849,7 +9852,7 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -9860,10 +9863,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9886,16 +9889,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9945,7 +9948,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9957,7 +9960,7 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -9969,7 +9972,7 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -9980,10 +9983,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10098,10 +10101,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10218,14 +10221,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10247,10 +10250,10 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>140</v>
@@ -10305,7 +10308,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10340,10 +10343,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10369,10 +10372,10 @@
         <v>158</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10402,10 +10405,10 @@
         <v>207</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10423,7 +10426,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10432,13 +10435,13 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>188</v>
@@ -10447,10 +10450,10 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>79</v>
@@ -10458,10 +10461,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10484,13 +10487,13 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10541,7 +10544,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10550,7 +10553,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>103</v>
@@ -10565,10 +10568,10 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>79</v>
@@ -10576,10 +10579,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10602,13 +10605,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10659,7 +10662,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10674,16 +10677,16 @@
         <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition-diagnose.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
